--- a/MEDIA/_ 1102  _301_會計科目餘額明細.xlsx
+++ b/MEDIA/_ 1102  _301_會計科目餘額明細.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -356,7 +356,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>森邦(股)會計科目餘額明細(_ 1102  _301_2020-10-09~2020-10-11)</t>
+          <t>森邦(股)會計科目餘額明細(_ 1102  _301_2020-10-08~2020-10-08)</t>
         </is>
       </c>
     </row>
@@ -419,7 +419,7 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>30024918</v>
+        <v>27279288</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -427,7 +427,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20201009</t>
+          <t>20201008</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -437,7 +437,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>竹北福興                                    </t>
+          <t>宜家家居股份有限公司(桃園分公司)                       </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -446,29 +446,29 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>22598</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-6420</v>
       </c>
       <c r="G4" t="n">
-        <v>30047516</v>
+        <v>27272868</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>109840</t>
+          <t>109732</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1000716</t>
+          <t>100313</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20201009</t>
+          <t>20201008</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -478,7 +478,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>楊梅校前	                                   </t>
+          <t>桃園中正長春	                                 </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -487,13 +487,13 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>67557</v>
+        <v>9344</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>30115073</v>
+        <v>27282212</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -502,14 +502,14 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1000939</t>
+          <t>1000925</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20201009</t>
+          <t>20201008</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -519,38 +519,38 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>竹北嘉興	                                   </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付林名富-李雁如-沖9/30#109725        </t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>25439</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G6" t="n">
-        <v>30140512</v>
+        <v>27282012</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>109726</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1000938</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20201009</t>
+          <t>20201008</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -560,38 +560,38 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汐止工建	                                   </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付童文冠-沖9/30#109725            </t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8729</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>-15543</v>
       </c>
       <c r="G7" t="n">
-        <v>30149241</v>
+        <v>27266469</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>109860</t>
+          <t>109726</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1000777</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20201009</t>
+          <t>20201008</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -601,38 +601,38 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>彰化旭光	                                   </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付胡毓樺-沖9/30#109725            </t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>38564</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>-2550</v>
       </c>
       <c r="G8" t="n">
-        <v>30187805</v>
+        <v>27263919</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>109860</t>
+          <t>109726</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1000947</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20201009</t>
+          <t>20201008</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -642,38 +642,38 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>沙鹿北勢東	                                  </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付胡毓樺-沖9/30#109725            </t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>12757</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>-840</v>
       </c>
       <c r="G9" t="n">
-        <v>30200562</v>
+        <v>27263079</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>109860</t>
+          <t>109726</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1000835</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20201009</t>
+          <t>20201008</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -683,38 +683,38 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>神岡豐洲	                                   </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付邱柏敏-沖9/30#109725            </t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>27342</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>-12790</v>
       </c>
       <c r="G10" t="n">
-        <v>30227904</v>
+        <v>27250289</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>109860</t>
+          <t>109726</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1000922</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20201009</t>
+          <t>20201008</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -724,38 +724,38 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>龍井竹坑                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>存現                            </t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>23511</v>
+        <v>1044632</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>30251415</v>
+        <v>28294921</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>109860</t>
+          <t>109830</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1000515</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20201009</t>
+          <t>20201008</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,38 +765,38 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>梧棲中興	                                   </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付陳世偉-沖9/30#109748            </t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>13519</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>-6006</v>
       </c>
       <c r="G12" t="n">
-        <v>30264934</v>
+        <v>28288915</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>109860</t>
+          <t>109750</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1000898</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20201009</t>
+          <t>20201008</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -806,38 +806,38 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>北市南京松江	                                 </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>暫收-中壢三光-徐任賢/徐金發 工程款34萬        </t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>36101</v>
+        <v>340000</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>30301035</v>
+        <v>28628915</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>109860</t>
+          <t>109830</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1000914</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20201009</t>
+          <t>20201008</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -847,38 +847,38 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>大里大智	                                   </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付藍圈科技-10-0104姚柏安費用申請         </t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>11336</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-38952</v>
       </c>
       <c r="G14" t="n">
-        <v>30312371</v>
+        <v>28589963</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>109860</t>
+          <t>109750</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1000943</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20201009</t>
+          <t>20201008</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -888,38 +888,38 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>樹林日新                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付許仁傑-沖9/30#109725            </t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>26620</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>-5320</v>
       </c>
       <c r="G15" t="n">
-        <v>30338991</v>
+        <v>28584643</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>109860</t>
+          <t>109726</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1000738</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20201009</t>
+          <t>20201008</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -929,38 +929,38 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>桃園大興                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付謝雅蓮-沖9/30#109725            </t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6063</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="G16" t="n">
-        <v>30345054</v>
+        <v>28584343</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>109860</t>
+          <t>109726</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1000941</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20201009</t>
+          <t>20201008</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -970,38 +970,38 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>高雄富民                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付王景鴻-沖9/30#109725            </t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>39717</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-2343</v>
       </c>
       <c r="G17" t="n">
-        <v>30384771</v>
+        <v>28582000</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>109860</t>
+          <t>109726</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1000879</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20201009</t>
+          <t>20201008</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1016,21 +1016,21 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>暫收-楊梅校前-謝承宏 工程款18萬            </t>
+          <t>支付顏于菁-沖9/30#109725            </t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>180000</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>-1736</v>
       </c>
       <c r="G18" t="n">
-        <v>30564771</v>
+        <v>28580264</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>109882</t>
+          <t>109726</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1042,7 +1042,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20201010</t>
+          <t>20201008</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1052,38 +1052,38 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>大溪仁中	                                   </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付游宇宸-沖9/30#109725            </t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>22438</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>-1700</v>
       </c>
       <c r="G19" t="n">
-        <v>30587209</v>
+        <v>28578564</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>109860</t>
+          <t>109726</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>1000945</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20201010</t>
+          <t>20201008</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1093,38 +1093,38 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>東勢東崎                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付李豫如-沖9/30#109725            </t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>47871</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-5735</v>
       </c>
       <c r="G20" t="n">
-        <v>30635080</v>
+        <v>28572829</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>109860</t>
+          <t>109726</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1000111</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20201010</t>
+          <t>20201008</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1134,38 +1134,38 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>永和永利	                                   </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付任宇晨-沖9/30#109725            </t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>22836</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>-170</v>
       </c>
       <c r="G21" t="n">
-        <v>30657916</v>
+        <v>28572659</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>109860</t>
+          <t>109726</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1000954</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20201010</t>
+          <t>20201008</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1175,38 +1175,38 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>北市延平南                                   </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付江泰禎-林堉鈖-沖9/30#109725        </t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>67529</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="G22" t="n">
-        <v>30725445</v>
+        <v>28571659</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>109860</t>
+          <t>109726</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1000874</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20201010</t>
+          <t>20201008</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>竹北民權	                                   </t>
+          <t>花蓮中山                                    </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1225,29 +1225,29 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>28913</v>
+        <v>22708</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>30754358</v>
+        <v>28594367</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>109860</t>
+          <t>109777</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1000946</t>
+          <t>1000882</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20201011</t>
+          <t>20201008</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>台東中華                                    </t>
+          <t>大甲日南	                                   </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1266,29 +1266,29 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>9390</v>
+        <v>72757</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>30763748</v>
+        <v>28667124</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>109860</t>
+          <t>109777</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1000582</t>
+          <t>1000948</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20201011</t>
+          <t>20201008</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>平鎮廣德                                    </t>
+          <t>三重集美                                    </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1307,29 +1307,29 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>18682</v>
+        <v>66356</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>30782430</v>
+        <v>28733480</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>109860</t>
+          <t>109777</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1000764</t>
+          <t>1000151</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20201011</t>
+          <t>20201008</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>北市南港高工                                  </t>
+          <t>土城永寧	                                   </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1348,29 +1348,29 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>14450</v>
+        <v>6644</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>30796880</v>
+        <v>28740124</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>109860</t>
+          <t>109777</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>1000345</t>
+          <t>1000935</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20201011</t>
+          <t>20201008</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>平鎮莎奇拉雅                                  </t>
+          <t>竹北文興                                    </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1389,29 +1389,29 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>12000</v>
+        <v>12553</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>30808880</v>
+        <v>28752677</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>109860</t>
+          <t>109777</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>1000658</t>
+          <t>1000903</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20201011</t>
+          <t>20201008</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1421,38 +1421,38 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>南崁奉化                                    </t>
+          <t>台北八德                                    </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>100000.1102.301               </t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>15041</v>
+        <v>10100</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>30823921</v>
+        <v>28762777</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>109860</t>
+          <t>109837</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>1000822</t>
+          <t>1000202</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20201011</t>
+          <t>20201008</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1462,38 +1462,38 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>高雄六合	                                   </t>
+          <t>林口醒吾                                    </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>100000.1102.301               </t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>23807</v>
+        <v>34727</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>30847728</v>
+        <v>28797504</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>109860</t>
+          <t>109837</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>1000849</t>
+          <t>1000099</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20201011</t>
+          <t>20201008</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1503,38 +1503,38 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>新莊富國                                    </t>
+          <t>竹東仁愛                                    </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>100000.1102.301               </t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>14523</v>
+        <v>28785</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>30862251</v>
+        <v>28826289</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>109860</t>
+          <t>109837</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>1000208</t>
+          <t>1000109</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20201011</t>
+          <t>20201008</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1544,38 +1544,38 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>仁德德安                                    </t>
+          <t>新店建國                                    </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>100000.1102.301               </t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>27312</v>
+        <v>61664</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>30889563</v>
+        <v>28887953</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>109860</t>
+          <t>109837</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>1000530</t>
+          <t>1000236</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20201011</t>
+          <t>20201008</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1585,38 +1585,38 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>新營中正	                                   </t>
+          <t>頭城新興                                    </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>100000.1102.301               </t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>8494</v>
+        <v>17000</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>30898057</v>
+        <v>28904953</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>109860</t>
+          <t>109837</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>1000834</t>
+          <t>1000333</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20201011</t>
+          <t>20201008</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>蘆竹大竹                                    </t>
+          <t>樹林站前	                                   </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1635,29 +1635,29 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>40000</v>
+        <v>72067</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>30938057</v>
+        <v>28977020</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>109860</t>
+          <t>109777</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>1000593</t>
+          <t>1000953</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20201011</t>
+          <t>20201008</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1667,38 +1667,38 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>八德銀和                                    </t>
+          <t>新豐新興                                    </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>100000.1102.301               </t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>16359</v>
+        <v>24957</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>30954416</v>
+        <v>29001977</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>109860</t>
+          <t>109837</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>1000296</t>
+          <t>1000018</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20201011</t>
+          <t>20201008</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1708,38 +1708,38 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>新市中興                                    </t>
+          <t>新竹延平                                    </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>100000.1102.301               </t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>23199</v>
+        <v>13400</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>30977615</v>
+        <v>29015377</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>109860</t>
+          <t>109837</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>1000561</t>
+          <t>1000255</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20201011</t>
+          <t>20201008</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1749,7 +1749,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>土城廣興                                    </t>
+          <t>虎尾復興                                    </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1758,29 +1758,29 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>25174</v>
+        <v>47738</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>31002789</v>
+        <v>29063115</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>109860</t>
+          <t>109777</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>1000672</t>
+          <t>1000594</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20201011</t>
+          <t>20201008</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>中和民享	                                   </t>
+          <t>台中遼寧	                                   </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1799,29 +1799,29 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>23070</v>
+        <v>4499</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>31025859</v>
+        <v>29067614</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>109860</t>
+          <t>109777</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>1000886</t>
+          <t>1000870</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20201011</t>
+          <t>20201008</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>台中精科	                                   </t>
+          <t>豐原向陽                                    </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1840,29 +1840,29 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>20600</v>
+        <v>13986</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>31046459</v>
+        <v>29081600</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>109860</t>
+          <t>109777</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>1000890</t>
+          <t>1000256</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20201011</t>
+          <t>20201008</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1872,7 +1872,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>竹北遠百勝利                                  </t>
+          <t>中和泰和                                    </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1881,22 +1881,801 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>46500</v>
+        <v>20000</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>31092959</v>
+        <v>29101600</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
+          <t>109777</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>1000807</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>20201008</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>台南中金院	                                  </t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>36750</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>29138350</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>109777</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>1000803</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>20201008</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>高雄昌富                                    </t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>17720</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>29156070</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>109777</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>1000262</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>20201008</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>麗嬰房                                     </t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>11295</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>29167365</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>109777</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>1000773</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>20201008</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>神岡昌平	                                   </t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>30000</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>29197365</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>109777</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>1000931</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>20201008</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>神岡昌平	                                   </t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>29645</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>29227010</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>109777</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>1000931</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>20201008</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>北市石牌	                                   </t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>18540</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>29245550</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>109777</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>1000867</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>20201008</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>南台科大	                                   </t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>6709</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>29252259</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>109777</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>1000923</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>20201008</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>三重光復                                    </t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>32154</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>29284413</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>109777</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>1000781</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>20201008</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>北市愛國                                    </t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>33474</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>29317887</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>109777</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>1000433</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>20201008</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中壢南園	                                   </t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>23489</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>29341376</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>109777</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>1000866</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>20201008</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>會計科目調整-測試存中信預留現金              </t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-10000</v>
+      </c>
+      <c r="G50" t="n">
+        <v>29331376</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>109983</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>20201008</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>沖#51900-退深坑北新-陳偉峰-保證金5萬       </t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-50000</v>
+      </c>
+      <c r="G51" t="n">
+        <v>29281376</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>109637</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>20201008</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>退訂                            </t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-500</v>
+      </c>
+      <c r="G52" t="n">
+        <v>29280876</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>109743</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>20201008</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>堤諾台北光復北-遇約券X1(10/06-EJ51676057</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-250</v>
+      </c>
+      <c r="G53" t="n">
+        <v>29280626</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>109769</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>20201008</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>晨亦企業有限公司                                </t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-15750</v>
+      </c>
+      <c r="G54" t="n">
+        <v>29264876</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>109694</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>100778</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>20201008</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>匯擷適科技-10月-好店緣商圈數據平台-展店用大數據    </t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-2100</v>
+      </c>
+      <c r="G55" t="n">
+        <v>29262776</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>109695</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>20201008</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>匯商邦08月:商邦-台新紅茶折價券38*5         </t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-190</v>
+      </c>
+      <c r="G56" t="n">
+        <v>29262586</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>109695</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>20201008</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>楊梅青山                                    </t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>5360</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>29267946</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
           <t>109860</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>1000911</t>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>1000887</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>20201008</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>支付黃追億-沖9/30#109725            </t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-3150</v>
+      </c>
+      <c r="G58" t="n">
+        <v>29264796</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>109726</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>

--- a/MEDIA/_ 1102  _301_會計科目餘額明細.xlsx
+++ b/MEDIA/_ 1102  _301_會計科目餘額明細.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -356,7 +356,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>森邦(股)會計科目餘額明細(_ 1102  _301_2020-10-08~2020-10-08)</t>
+          <t>森邦(股)會計科目餘額明細(_ 1102  _301_2020-11-23~2020-11-23)</t>
         </is>
       </c>
     </row>
@@ -419,7 +419,7 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>27279288</v>
+        <v>41347735</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -427,7 +427,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20201008</t>
+          <t>20201123</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -437,38 +437,38 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>宜家家居股份有限公司(桃園分公司)                       </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>中信轉凱基森邦-2000萬                 </t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>20000000</v>
       </c>
       <c r="F4" t="n">
-        <v>-6420</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>27272868</v>
+        <v>61347735</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>109732</t>
+          <t>111829</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>100313</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20201008</t>
+          <t>20201123</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -478,7 +478,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>桃園中正長春	                                 </t>
+          <t>北市濟南	                                   </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -487,29 +487,29 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>9344</v>
+        <v>33176</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>27282212</v>
+        <v>61380911</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>109860</t>
+          <t>111830</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1000925</t>
+          <t>1000816</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20201008</t>
+          <t>20201123</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -519,38 +519,38 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>竹北文興                                    </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>支付林名富-李雁如-沖9/30#109725        </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>9343</v>
       </c>
       <c r="F6" t="n">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>27282012</v>
+        <v>61390254</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>109726</t>
+          <t>111789</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000903</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20201008</t>
+          <t>20201123</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -560,38 +560,38 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>東勢中山                                    </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>支付童文冠-沖9/30#109725            </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>29053</v>
       </c>
       <c r="F7" t="n">
-        <v>-15543</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>27266469</v>
+        <v>61419307</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>109726</t>
+          <t>111789</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000290</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20201008</t>
+          <t>20201123</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -601,38 +601,38 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>民雄文化                                    </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>支付胡毓樺-沖9/30#109725            </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>30700</v>
       </c>
       <c r="F8" t="n">
-        <v>-2550</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>27263919</v>
+        <v>61450007</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>109726</t>
+          <t>111789</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000854</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20201008</t>
+          <t>20201123</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -642,38 +642,38 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>平鎮豐頂                                    </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>支付胡毓樺-沖9/30#109725            </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>45588</v>
       </c>
       <c r="F9" t="n">
-        <v>-840</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>27263079</v>
+        <v>61495595</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>109726</t>
+          <t>111789</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000805</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20201008</t>
+          <t>20201123</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -683,38 +683,38 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>竹北六家嘉豐	                                 </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>支付邱柏敏-沖9/30#109725            </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>12840</v>
       </c>
       <c r="F10" t="n">
-        <v>-12790</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>27250289</v>
+        <v>61508435</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>109726</t>
+          <t>111789</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000927</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20201008</t>
+          <t>20201123</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -724,38 +724,38 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>台北八德                                    </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>存現                            </t>
+          <t>100000.1102.301               </t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1044632</v>
+        <v>11100</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>28294921</v>
+        <v>61519535</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>109830</t>
+          <t>111840</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000202</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20201008</t>
+          <t>20201123</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,38 +765,38 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>堤諾林口店                                   </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>支付陳世偉-沖9/30#109748            </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>37301</v>
       </c>
       <c r="F12" t="n">
-        <v>-6006</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>28288915</v>
+        <v>61556836</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>109750</t>
+          <t>111789</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4000023</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20201008</t>
+          <t>20201123</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -806,38 +806,38 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>堤諾長庚                                    </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>暫收-中壢三光-徐任賢/徐金發 工程款34萬        </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>340000</v>
+        <v>54832</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>28628915</v>
+        <v>61611668</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>109830</t>
+          <t>111789</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4000024</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20201008</t>
+          <t>20201123</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -847,38 +847,38 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>平鎮廣德                                    </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>支付藍圈科技-10-0104姚柏安費用申請         </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>26685</v>
       </c>
       <c r="F14" t="n">
-        <v>-38952</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>28589963</v>
+        <v>61638353</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>109750</t>
+          <t>111769</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000764</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20201008</t>
+          <t>20201123</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -888,38 +888,38 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>新莊富國                                    </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>支付許仁傑-沖9/30#109725            </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="F15" t="n">
-        <v>-5320</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>28584643</v>
+        <v>61648353</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>109726</t>
+          <t>111769</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000208</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20201008</t>
+          <t>20201123</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -929,38 +929,38 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>堤諾北大大義                                  </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>支付謝雅蓮-沖9/30#109725            </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>99509</v>
       </c>
       <c r="F16" t="n">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>28584343</v>
+        <v>61747862</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>109726</t>
+          <t>111789</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4000021</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20201008</t>
+          <t>20201123</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -970,38 +970,38 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>苗栗中正                                    </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>支付王景鴻-沖9/30#109725            </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>32859</v>
       </c>
       <c r="F17" t="n">
-        <v>-2343</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>28582000</v>
+        <v>61780721</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>109726</t>
+          <t>111789</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000788</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20201008</t>
+          <t>20201123</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1011,38 +1011,38 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>中和泰和                                    </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>支付顏于菁-沖9/30#109725            </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="F18" t="n">
-        <v>-1736</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>28580264</v>
+        <v>61810721</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>109726</t>
+          <t>111769</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000807</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20201008</t>
+          <t>20201123</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1052,38 +1052,38 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>蘆竹大竹                                    </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>支付游宇宸-沖9/30#109725            </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="F19" t="n">
-        <v>-1700</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>28578564</v>
+        <v>61850721</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>109726</t>
+          <t>111769</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000593</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20201008</t>
+          <t>20201123</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1093,38 +1093,38 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>汐止復興                                    </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>支付李豫如-沖9/30#109725            </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>12547</v>
       </c>
       <c r="F20" t="n">
-        <v>-5735</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>28572829</v>
+        <v>61863268</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>109726</t>
+          <t>111789</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000285</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20201008</t>
+          <t>20201123</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1134,38 +1134,38 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>白河國泰                                    </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>支付任宇晨-沖9/30#109725            </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>15497</v>
       </c>
       <c r="F21" t="n">
-        <v>-170</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>28572659</v>
+        <v>61878765</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>109726</t>
+          <t>111789</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000536</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20201008</t>
+          <t>20201123</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1175,38 +1175,38 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>桃園大業	                                   </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>支付江泰禎-林堉鈖-沖9/30#109725        </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>27266</v>
       </c>
       <c r="F22" t="n">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>28571659</v>
+        <v>61906031</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>109726</t>
+          <t>111769</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000873</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20201008</t>
+          <t>20201123</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>花蓮中山                                    </t>
+          <t>善化大成                                    </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1225,29 +1225,29 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>22708</v>
+        <v>30356</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>28594367</v>
+        <v>61936387</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>109777</t>
+          <t>111769</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1000882</t>
+          <t>1000629</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20201008</t>
+          <t>20201123</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>大甲日南	                                   </t>
+          <t>板橋民族                                    </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1266,29 +1266,29 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>72757</v>
+        <v>26833</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>28667124</v>
+        <v>61963220</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>109777</t>
+          <t>111789</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1000948</t>
+          <t>1000153</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20201008</t>
+          <t>20201123</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>三重集美                                    </t>
+          <t>桃園廈門                                    </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1307,29 +1307,29 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>66356</v>
+        <v>19758</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>28733480</v>
+        <v>61982978</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>109777</t>
+          <t>111789</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1000151</t>
+          <t>1000910</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20201008</t>
+          <t>20201123</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>土城永寧	                                   </t>
+          <t>北市立農	                                   </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1348,29 +1348,29 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6644</v>
+        <v>24658</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>28740124</v>
+        <v>62007636</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>109777</t>
+          <t>111769</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>1000935</t>
+          <t>1000959</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20201008</t>
+          <t>20201123</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>竹北文興                                    </t>
+          <t>羅東成功                                    </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1389,29 +1389,29 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>12553</v>
+        <v>37703</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>28752677</v>
+        <v>62045339</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>109777</t>
+          <t>111769</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>1000903</t>
+          <t>1000317</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20201008</t>
+          <t>20201123</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1421,38 +1421,38 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>台北八德                                    </t>
+          <t>北市愛國                                    </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>100000.1102.301               </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>10100</v>
+        <v>37583</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>28762777</v>
+        <v>62082922</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>109837</t>
+          <t>111769</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>1000202</t>
+          <t>1000433</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20201008</t>
+          <t>20201123</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1462,38 +1462,38 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>林口醒吾                                    </t>
+          <t>三重光復                                    </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>100000.1102.301               </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>34727</v>
+        <v>44541</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>28797504</v>
+        <v>62127463</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>109837</t>
+          <t>111769</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>1000099</t>
+          <t>1000781</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20201008</t>
+          <t>20201123</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1503,38 +1503,38 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>竹東仁愛                                    </t>
+          <t>北市成都	                                   </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>100000.1102.301               </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>28785</v>
+        <v>55390</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>28826289</v>
+        <v>62182853</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>109837</t>
+          <t>111789</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>1000109</t>
+          <t>1000955</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20201008</t>
+          <t>20201123</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1544,38 +1544,38 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>新店建國                                    </t>
+          <t>後龍中山                                    </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>100000.1102.301               </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>61664</v>
+        <v>36048</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>28887953</v>
+        <v>62218901</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>109837</t>
+          <t>111789</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>1000236</t>
+          <t>1000067</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20201008</t>
+          <t>20201123</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1585,38 +1585,38 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>頭城新興                                    </t>
+          <t>中壢中原	                                   </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>100000.1102.301               </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>17000</v>
+        <v>37118</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>28904953</v>
+        <v>62256019</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>109837</t>
+          <t>111789</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>1000333</t>
+          <t>1000917</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20201008</t>
+          <t>20201123</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>樹林站前	                                   </t>
+          <t>新竹橫山	                                   </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1635,29 +1635,29 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>72067</v>
+        <v>27328</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>28977020</v>
+        <v>62283347</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>109777</t>
+          <t>111830</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>1000953</t>
+          <t>1000844</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20201008</t>
+          <t>20201123</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1667,38 +1667,38 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>新豐新興                                    </t>
+          <t>三重正義南	                                  </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>100000.1102.301               </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>24957</v>
+        <v>60000</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>29001977</v>
+        <v>62343347</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>109837</t>
+          <t>111830</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>1000018</t>
+          <t>1000962</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20201008</t>
+          <t>20201123</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1708,38 +1708,38 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>新竹延平                                    </t>
+          <t>三重正義南	                                  </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>100000.1102.301               </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>13400</v>
+        <v>20614</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>29015377</v>
+        <v>62363961</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>109837</t>
+          <t>111830</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>1000255</t>
+          <t>1000962</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20201008</t>
+          <t>20201123</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1749,7 +1749,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>虎尾復興                                    </t>
+          <t>平鎮莎奇拉雅                                  </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1758,29 +1758,29 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>47738</v>
+        <v>5000</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>29063115</v>
+        <v>62368961</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>109777</t>
+          <t>111830</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>1000594</t>
+          <t>1000658</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20201008</t>
+          <t>20201123</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>台中遼寧	                                   </t>
+          <t>新竹湳雅	                                   </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1799,29 +1799,29 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>4499</v>
+        <v>33762</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>29067614</v>
+        <v>62402723</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>109777</t>
+          <t>111830</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>1000870</t>
+          <t>1000918</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20201008</t>
+          <t>20201123</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>豐原向陽                                    </t>
+          <t>土城永寧	                                   </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1840,29 +1840,29 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>13986</v>
+        <v>9562</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>29081600</v>
+        <v>62412285</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>109777</t>
+          <t>111830</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>1000256</t>
+          <t>1000935</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20201008</t>
+          <t>20201123</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1872,7 +1872,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>中和泰和                                    </t>
+          <t>桃園大興                                    </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1881,29 +1881,29 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>20000</v>
+        <v>12264</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>29101600</v>
+        <v>62424549</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>109777</t>
+          <t>111830</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>1000807</t>
+          <t>1000941</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>20201008</t>
+          <t>20201123</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>台南中金院	                                  </t>
+          <t>八德中正	                                   </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1922,29 +1922,29 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>36750</v>
+        <v>40795</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>29138350</v>
+        <v>62465344</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>109777</t>
+          <t>111830</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>1000803</t>
+          <t>1000830</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>20201008</t>
+          <t>20201123</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1954,7 +1954,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>高雄昌富                                    </t>
+          <t>台南文南                                    </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1963,29 +1963,29 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>17720</v>
+        <v>23560</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>29156070</v>
+        <v>62488904</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>109777</t>
+          <t>111830</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>1000262</t>
+          <t>1000074</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>20201008</t>
+          <t>20201123</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1995,7 +1995,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>麗嬰房                                     </t>
+          <t>北市和平                                    </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2004,678 +2004,22 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>11295</v>
+        <v>25194</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>29167365</v>
+        <v>62514098</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>109777</t>
+          <t>111789</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>1000773</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>20201008</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>神岡昌平	                                   </t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E43" t="n">
-        <v>30000</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>29197365</v>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>109777</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>1000931</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>20201008</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>神岡昌平	                                   </t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E44" t="n">
-        <v>29645</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>29227010</v>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>109777</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>1000931</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>20201008</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>北市石牌	                                   </t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E45" t="n">
-        <v>18540</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="n">
-        <v>29245550</v>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>109777</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>1000867</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>20201008</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>南台科大	                                   </t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E46" t="n">
-        <v>6709</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>29252259</v>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>109777</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>1000923</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>20201008</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>三重光復                                    </t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E47" t="n">
-        <v>32154</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="n">
-        <v>29284413</v>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>109777</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>1000781</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>20201008</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>北市愛國                                    </t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E48" t="n">
-        <v>33474</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="n">
-        <v>29317887</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>109777</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>1000433</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>20201008</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>中壢南園	                                   </t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E49" t="n">
-        <v>23489</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" t="n">
-        <v>29341376</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>109777</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>1000866</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>20201008</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>會計科目調整-測試存中信預留現金              </t>
-        </is>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>-10000</v>
-      </c>
-      <c r="G50" t="n">
-        <v>29331376</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>109983</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>20201008</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>沖#51900-退深坑北新-陳偉峰-保證金5萬       </t>
-        </is>
-      </c>
-      <c r="E51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" t="n">
-        <v>-50000</v>
-      </c>
-      <c r="G51" t="n">
-        <v>29281376</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>109637</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>20201008</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>退訂                            </t>
-        </is>
-      </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" t="n">
-        <v>-500</v>
-      </c>
-      <c r="G52" t="n">
-        <v>29280876</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>109743</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>20201008</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>堤諾台北光復北-遇約券X1(10/06-EJ51676057</t>
-        </is>
-      </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" t="n">
-        <v>-250</v>
-      </c>
-      <c r="G53" t="n">
-        <v>29280626</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>109769</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>20201008</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>晨亦企業有限公司                                </t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" t="n">
-        <v>-15750</v>
-      </c>
-      <c r="G54" t="n">
-        <v>29264876</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>109694</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>100778</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>20201008</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>匯擷適科技-10月-好店緣商圈數據平台-展店用大數據    </t>
-        </is>
-      </c>
-      <c r="E55" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" t="n">
-        <v>-2100</v>
-      </c>
-      <c r="G55" t="n">
-        <v>29262776</v>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>109695</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>20201008</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>匯商邦08月:商邦-台新紅茶折價券38*5         </t>
-        </is>
-      </c>
-      <c r="E56" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" t="n">
-        <v>-190</v>
-      </c>
-      <c r="G56" t="n">
-        <v>29262586</v>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>109695</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>20201008</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>楊梅青山                                    </t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E57" t="n">
-        <v>5360</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" t="n">
-        <v>29267946</v>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>109860</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>1000887</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>20201008</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>1102  .301     </t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>支付黃追億-沖9/30#109725            </t>
-        </is>
-      </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" t="n">
-        <v>-3150</v>
-      </c>
-      <c r="G58" t="n">
-        <v>29264796</v>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>109726</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>0</t>
+          <t>1000414</t>
         </is>
       </c>
     </row>
